--- a/Control Data/COVID-19_Regional_Safety_Assessment.xlsx
+++ b/Control Data/COVID-19_Regional_Safety_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chacr\OneDrive\Documents\Coding\JHU Data\COVID-19\Control Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{F6F706B0-5678-4720-A996-9156B59A44D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D139C99-431D-4CD5-B265-3B0E26A5E0C9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{F6F706B0-5678-4720-A996-9156B59A44D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70570444-0F44-4091-B218-79763C18456B}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2220" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19_Regional_Safety_Assess" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Iceland</t>
   </si>
   <si>
-    <t>Taiwan*</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -847,6 +844,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.dkv.global/covid-safety-assessment-250-list </t>
+  </si>
+  <si>
+    <t>Taiwan</t>
   </si>
 </sst>
 </file>
@@ -1704,19 +1704,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2159,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="C16">
         <v>132.94</v>
@@ -2188,7 +2189,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>140.75</v>
@@ -2217,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>124.22</v>
@@ -2246,7 +2247,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>142.87</v>
@@ -2275,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>129.38999999999999</v>
@@ -2304,7 +2305,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>143.38999999999999</v>
@@ -2333,7 +2334,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>143.91999999999999</v>
@@ -2362,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>124.53</v>
@@ -2391,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>119.52</v>
@@ -2420,7 +2421,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>137.68</v>
@@ -2449,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>132.26</v>
@@ -2478,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>138.66</v>
@@ -2507,7 +2508,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>120.21</v>
@@ -2536,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>125.69</v>
@@ -2565,7 +2566,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>128.25</v>
@@ -2594,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>122.42</v>
@@ -2623,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>112.32</v>
@@ -2652,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>133.01</v>
@@ -2681,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>120.67</v>
@@ -2710,7 +2711,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>123.63</v>
@@ -2739,7 +2740,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>122.26</v>
@@ -2768,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>105.8</v>
@@ -2797,7 +2798,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>122.49</v>
@@ -2826,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>123.03</v>
@@ -2855,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>126.67</v>
@@ -2884,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>131.12</v>
@@ -2913,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>119.69</v>
@@ -2942,7 +2943,7 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>119.59</v>
@@ -2971,7 +2972,7 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>111.32</v>
@@ -3000,7 +3001,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>113.74</v>
@@ -3029,7 +3030,7 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>105.63</v>
@@ -3058,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>126.05</v>
@@ -3087,7 +3088,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>116.94</v>
@@ -3113,10 +3114,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
         <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>62</v>
       </c>
       <c r="C49">
         <v>113.7</v>
@@ -3145,7 +3146,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>116.57</v>
@@ -3174,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>125.66</v>
@@ -3203,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>124.35</v>
@@ -3232,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53">
         <v>107.67</v>
@@ -3261,7 +3262,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54">
         <v>111.32</v>
@@ -3290,7 +3291,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>104.13</v>
@@ -3319,7 +3320,7 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>104.83</v>
@@ -3348,7 +3349,7 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>120.84</v>
@@ -3374,10 +3375,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
         <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>72</v>
       </c>
       <c r="C58">
         <v>113.72</v>
@@ -3403,10 +3404,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>119.53</v>
@@ -3435,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60">
         <v>112.24</v>
@@ -3464,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61">
         <v>115.38</v>
@@ -3493,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>132.30000000000001</v>
@@ -3522,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>119.51</v>
@@ -3551,7 +3552,7 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64">
         <v>110.85</v>
@@ -3580,7 +3581,7 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>107.08</v>
@@ -3606,10 +3607,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66">
         <v>106.35</v>
@@ -3635,10 +3636,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67">
         <v>113.6</v>
@@ -3667,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>104.29</v>
@@ -3693,10 +3694,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <v>117.64</v>
@@ -3722,10 +3723,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70">
         <v>120.85</v>
@@ -3754,7 +3755,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71">
         <v>109.27</v>
@@ -3780,10 +3781,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72">
         <v>123.52</v>
@@ -3812,7 +3813,7 @@
         <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73">
         <v>115.72</v>
@@ -3841,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74">
         <v>93.35</v>
@@ -3870,7 +3871,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75">
         <v>121.78</v>
@@ -3896,10 +3897,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76">
         <v>105.44</v>
@@ -3925,10 +3926,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77">
         <v>119.29</v>
@@ -3957,7 +3958,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78">
         <v>103.54</v>
@@ -3983,10 +3984,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C79">
         <v>109.96</v>
@@ -4015,7 +4016,7 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80">
         <v>115.68</v>
@@ -4044,7 +4045,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C81">
         <v>110.96</v>
@@ -4070,10 +4071,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82">
         <v>120.12</v>
@@ -4099,10 +4100,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83">
         <v>121.28</v>
@@ -4131,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84">
         <v>123.04</v>
@@ -4160,7 +4161,7 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85">
         <v>122.05</v>
@@ -4186,10 +4187,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86">
         <v>114.19</v>
@@ -4218,7 +4219,7 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87">
         <v>113.28</v>
@@ -4244,10 +4245,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88">
         <v>115.35</v>
@@ -4273,10 +4274,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89">
         <v>111.34</v>
@@ -4305,7 +4306,7 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90">
         <v>112.16</v>
@@ -4331,10 +4332,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91">
         <v>106.51</v>
@@ -4363,7 +4364,7 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92">
         <v>123.65</v>
@@ -4392,7 +4393,7 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93">
         <v>119.11</v>
@@ -4418,10 +4419,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94">
         <v>117.28</v>
@@ -4450,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C95">
         <v>113.16</v>
@@ -4476,10 +4477,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96">
         <v>111.72</v>
@@ -4505,10 +4506,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97">
         <v>112.1</v>
@@ -4537,7 +4538,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98">
         <v>107.06</v>
@@ -4563,10 +4564,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99">
         <v>119.78</v>
@@ -4595,7 +4596,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C100">
         <v>100.19</v>
@@ -4621,10 +4622,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C101">
         <v>117.43</v>
@@ -4653,7 +4654,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C102">
         <v>116.45</v>
@@ -4679,10 +4680,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103">
         <v>106.08</v>
@@ -4711,7 +4712,7 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C104">
         <v>114</v>
@@ -4737,10 +4738,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C105">
         <v>108.82</v>
@@ -4766,10 +4767,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C106">
         <v>104.33</v>
@@ -4795,10 +4796,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C107">
         <v>105.28</v>
@@ -4824,10 +4825,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C108">
         <v>109.89</v>
@@ -4856,7 +4857,7 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109">
         <v>108.84</v>
@@ -4882,10 +4883,10 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C110">
         <v>106.77</v>
@@ -4911,10 +4912,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C111">
         <v>112.69</v>
@@ -4940,10 +4941,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112">
         <v>112.65</v>
@@ -4969,10 +4970,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113">
         <v>111.9</v>
@@ -4998,10 +4999,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C114">
         <v>105.22</v>
@@ -5030,7 +5031,7 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C115">
         <v>113.83</v>
@@ -5059,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C116">
         <v>113.64</v>
@@ -5088,7 +5089,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C117">
         <v>107.07</v>
@@ -5114,10 +5115,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C118">
         <v>100.93</v>
@@ -5143,10 +5144,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119">
         <v>105.89</v>
@@ -5172,10 +5173,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C120">
         <v>114.19</v>
@@ -5204,7 +5205,7 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121">
         <v>113.07</v>
@@ -5230,10 +5231,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C122">
         <v>114.5</v>
@@ -5259,10 +5260,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C123">
         <v>105.96</v>
@@ -5288,10 +5289,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C124">
         <v>105.65</v>
@@ -5320,7 +5321,7 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C125">
         <v>105.6</v>
@@ -5346,10 +5347,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C126">
         <v>106.57</v>
@@ -5378,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C127">
         <v>105.74</v>
@@ -5404,10 +5405,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C128">
         <v>109.51</v>
@@ -5433,10 +5434,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C129">
         <v>105.81</v>
@@ -5462,10 +5463,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C130">
         <v>112.35</v>
@@ -5491,10 +5492,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C131">
         <v>106.53</v>
@@ -5520,10 +5521,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C132">
         <v>104.59</v>
@@ -5549,10 +5550,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C133">
         <v>108.56</v>
@@ -5581,7 +5582,7 @@
         <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C134">
         <v>104.3</v>
@@ -5607,10 +5608,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C135">
         <v>99.09</v>
@@ -5636,10 +5637,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C136">
         <v>100.09</v>
@@ -5665,10 +5666,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C137">
         <v>105.9</v>
@@ -5694,10 +5695,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C138">
         <v>104.83</v>
@@ -5723,10 +5724,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C139">
         <v>107.14</v>
@@ -5752,10 +5753,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C140">
         <v>110.29</v>
@@ -5781,10 +5782,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C141">
         <v>112.5</v>
@@ -5813,7 +5814,7 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C142">
         <v>109.49</v>
@@ -5842,7 +5843,7 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C143">
         <v>106.81</v>
@@ -5871,7 +5872,7 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144">
         <v>104.87</v>
@@ -5897,10 +5898,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C145">
         <v>105.61</v>
@@ -5926,10 +5927,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C146">
         <v>105.53</v>
@@ -5958,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C147">
         <v>105.5</v>
@@ -5984,10 +5985,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148">
         <v>106.3</v>
@@ -6013,10 +6014,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149">
         <v>105.17</v>
@@ -6042,10 +6043,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C150">
         <v>110.97</v>
@@ -6071,10 +6072,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C151">
         <v>105.22</v>
@@ -6103,7 +6104,7 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C152">
         <v>107.66</v>
@@ -6132,7 +6133,7 @@
         <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C153">
         <v>107.4</v>
@@ -6161,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C154">
         <v>106.9</v>
@@ -6190,7 +6191,7 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C155">
         <v>106.14</v>
@@ -6216,10 +6217,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C156">
         <v>105.5</v>
@@ -6245,10 +6246,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C157">
         <v>105.63</v>
@@ -6274,10 +6275,10 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C158">
         <v>104.48</v>
@@ -6303,10 +6304,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B159" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C159">
         <v>105.53</v>
@@ -6332,10 +6333,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C160">
         <v>105.28</v>
@@ -6361,10 +6362,10 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C161">
         <v>105.31</v>
@@ -6390,10 +6391,10 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C162">
         <v>112.08</v>
@@ -6422,7 +6423,7 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C163">
         <v>107.61</v>
@@ -6451,7 +6452,7 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C164">
         <v>107.51</v>
@@ -6477,10 +6478,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C165">
         <v>104.2</v>
@@ -6509,7 +6510,7 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C166">
         <v>105.78</v>
@@ -6538,7 +6539,7 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C167">
         <v>105.74</v>
@@ -6567,7 +6568,7 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C168">
         <v>110.46</v>
@@ -6596,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C169">
         <v>104.68</v>
@@ -6622,10 +6623,10 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C170">
         <v>105.22</v>
@@ -6654,7 +6655,7 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C171">
         <v>108.98</v>
@@ -6680,10 +6681,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B172" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C172">
         <v>105.43</v>
@@ -6712,7 +6713,7 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C173">
         <v>117.9</v>
@@ -6741,7 +6742,7 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C174">
         <v>126.56</v>
@@ -6770,7 +6771,7 @@
         <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C175">
         <v>118.18</v>
@@ -6796,10 +6797,10 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C176">
         <v>118.66</v>
@@ -6828,7 +6829,7 @@
         <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C177">
         <v>121.17</v>
@@ -6857,7 +6858,7 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C178">
         <v>118.68</v>
@@ -6883,10 +6884,10 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C179">
         <v>118.94</v>
@@ -6915,7 +6916,7 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C180">
         <v>120.5</v>
@@ -6944,7 +6945,7 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C181">
         <v>119.66</v>
@@ -6973,7 +6974,7 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C182">
         <v>119.31</v>
@@ -6999,10 +7000,10 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B183" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C183">
         <v>100.85</v>
@@ -7028,10 +7029,10 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B184" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C184">
         <v>119.09</v>
@@ -7057,10 +7058,10 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B185" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C185">
         <v>118.7</v>
@@ -7089,7 +7090,7 @@
         <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C186">
         <v>119.54</v>
@@ -7115,10 +7116,10 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B187" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C187">
         <v>120.82</v>
@@ -7144,10 +7145,10 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C188">
         <v>119.2</v>
@@ -7176,7 +7177,7 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C189">
         <v>122.43</v>
@@ -7205,7 +7206,7 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C190">
         <v>111.45</v>
@@ -7231,10 +7232,10 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C191">
         <v>118.02</v>
@@ -7263,7 +7264,7 @@
         <v>9</v>
       </c>
       <c r="B192" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C192">
         <v>118.14</v>
@@ -7292,7 +7293,7 @@
         <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C193">
         <v>112.68</v>
@@ -7321,7 +7322,7 @@
         <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C194">
         <v>105.5</v>
@@ -7347,10 +7348,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B195" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C195">
         <v>111.21</v>
@@ -7376,10 +7377,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C196">
         <v>118.08</v>
@@ -7408,7 +7409,7 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C197">
         <v>118.53</v>
@@ -7437,7 +7438,7 @@
         <v>19</v>
       </c>
       <c r="B198" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C198">
         <v>109.84</v>
@@ -7466,7 +7467,7 @@
         <v>19</v>
       </c>
       <c r="B199" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C199">
         <v>93.14</v>
@@ -7495,7 +7496,7 @@
         <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C200">
         <v>109.34</v>
@@ -7521,10 +7522,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B201" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C201">
         <v>117.57</v>
@@ -7550,10 +7551,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C202">
         <v>116.1</v>
@@ -7582,7 +7583,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C203">
         <v>117.5</v>
@@ -7611,7 +7612,7 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C204">
         <v>122.82</v>
@@ -7637,10 +7638,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B205" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C205">
         <v>117.86</v>
@@ -7669,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C206">
         <v>112.53</v>
@@ -7695,10 +7696,10 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B207" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C207">
         <v>126.14</v>
@@ -7724,10 +7725,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B208" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C208">
         <v>117.15</v>
@@ -7756,7 +7757,7 @@
         <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C209">
         <v>119.93</v>
@@ -7785,7 +7786,7 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C210">
         <v>123.17</v>
@@ -7814,7 +7815,7 @@
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C211">
         <v>122.75</v>
@@ -7843,7 +7844,7 @@
         <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C212">
         <v>119.32</v>
@@ -7872,7 +7873,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C213">
         <v>95.01</v>
@@ -7898,10 +7899,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B214" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C214">
         <v>117.8</v>
@@ -7930,7 +7931,7 @@
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C215">
         <v>119.49</v>
@@ -7956,10 +7957,10 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B216" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C216">
         <v>119.35</v>
@@ -7988,7 +7989,7 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C217">
         <v>116.58</v>
@@ -8014,10 +8015,10 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B218" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C218">
         <v>119.36</v>
@@ -8043,10 +8044,10 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B219" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C219">
         <v>107.79</v>
@@ -8072,10 +8073,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B220" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C220">
         <v>100.91</v>
@@ -8101,10 +8102,10 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B221" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C221">
         <v>98.83</v>
@@ -8130,10 +8131,10 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B222" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C222">
         <v>119.87</v>
@@ -8162,7 +8163,7 @@
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C223">
         <v>119.68</v>
@@ -8188,10 +8189,10 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C224">
         <v>119.68</v>
@@ -8217,10 +8218,10 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B225" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C225">
         <v>98.75</v>
@@ -8246,10 +8247,10 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B226" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C226">
         <v>100.09</v>
@@ -8278,7 +8279,7 @@
         <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C227">
         <v>118.09</v>
@@ -8307,7 +8308,7 @@
         <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C228">
         <v>113.19</v>
@@ -8336,7 +8337,7 @@
         <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C229">
         <v>118.09</v>
@@ -8365,7 +8366,7 @@
         <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C230">
         <v>118.09</v>
@@ -8394,7 +8395,7 @@
         <v>22</v>
       </c>
       <c r="B231" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C231">
         <v>111.13</v>
@@ -8420,10 +8421,10 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B232" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C232">
         <v>114.16</v>
@@ -8452,7 +8453,7 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C233">
         <v>108.49</v>
@@ -8481,7 +8482,7 @@
         <v>19</v>
       </c>
       <c r="B234" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C234">
         <v>84.18</v>
@@ -8510,7 +8511,7 @@
         <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C235">
         <v>117.57</v>
@@ -8539,7 +8540,7 @@
         <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C236">
         <v>112.77</v>
@@ -8568,7 +8569,7 @@
         <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C237">
         <v>126.17</v>
@@ -8594,10 +8595,10 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B238" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C238">
         <v>105.11</v>
@@ -8626,7 +8627,7 @@
         <v>19</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C239">
         <v>98.95</v>
@@ -8652,10 +8653,10 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B240" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C240">
         <v>97.6</v>
@@ -8681,10 +8682,10 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B241" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C241">
         <v>97.44</v>
@@ -8713,7 +8714,7 @@
         <v>19</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C242">
         <v>91.84</v>
@@ -8742,7 +8743,7 @@
         <v>19</v>
       </c>
       <c r="B243" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C243">
         <v>97.77</v>
@@ -8768,10 +8769,10 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B244" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C244">
         <v>96.87</v>
@@ -8797,10 +8798,10 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B245" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C245">
         <v>89.06</v>
@@ -8826,10 +8827,10 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B246" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C246">
         <v>93.89</v>
@@ -8855,10 +8856,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B247" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C247">
         <v>90.67</v>
@@ -8887,7 +8888,7 @@
         <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C248">
         <v>98.74</v>
@@ -8913,10 +8914,10 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B249" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C249">
         <v>93.48</v>
@@ -8942,10 +8943,10 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B250" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C250">
         <v>95.07</v>
@@ -8971,10 +8972,10 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B251" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C251">
         <v>80.3</v>
@@ -9000,10 +9001,10 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B252" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C252">
         <v>97.35</v>
@@ -9029,10 +9030,10 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B253" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C253">
         <v>87.71</v>
@@ -9082,7 +9083,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1">
         <v>44094</v>
@@ -9090,10 +9091,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Control Data/COVID-19_Regional_Safety_Assessment.xlsx
+++ b/Control Data/COVID-19_Regional_Safety_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chacr\OneDrive\Documents\Coding\JHU Data\COVID-19\Control Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{F6F706B0-5678-4720-A996-9156B59A44D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70570444-0F44-4091-B218-79763C18456B}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{F6F706B0-5678-4720-A996-9156B59A44D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D14AFFBB-58EF-4555-BCB8-AB9D2A744C5C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19_Regional_Safety_Assess" sheetId="1" r:id="rId1"/>
@@ -843,10 +843,10 @@
     <t>Location:</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dkv.global/covid-safety-assessment-250-list </t>
-  </si>
-  <si>
     <t>Taiwan</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/future-population-growth</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16">
         <v>132.94</v>
@@ -9071,8 +9071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9094,14 +9094,11 @@
         <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Control Data/COVID-19_Regional_Safety_Assessment.xlsx
+++ b/Control Data/COVID-19_Regional_Safety_Assessment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chacr\OneDrive\Documents\Coding\JHU Data\COVID-19\Control Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{F6F706B0-5678-4720-A996-9156B59A44D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D14AFFBB-58EF-4555-BCB8-AB9D2A744C5C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{F6F706B0-5678-4720-A996-9156B59A44D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{70570444-0F44-4091-B218-79763C18456B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19_Regional_Safety_Assess" sheetId="1" r:id="rId1"/>
@@ -843,10 +843,10 @@
     <t>Location:</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dkv.global/covid-safety-assessment-250-list </t>
+  </si>
+  <si>
     <t>Taiwan</t>
-  </si>
-  <si>
-    <t>https://ourworldindata.org/future-population-growth</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2160,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C16">
         <v>132.94</v>
@@ -9071,8 +9071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9094,11 +9094,14 @@
         <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>